--- a/biology/Médecine/Étienne_Gourmelen/Étienne_Gourmelen.xlsx
+++ b/biology/Médecine/Étienne_Gourmelen/Étienne_Gourmelen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Gourmelen</t>
+          <t>Étienne_Gourmelen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Gourmelen est un médecin français d'origine bretonne du XVIe siècle, professeur au Collège de France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Gourmelen</t>
+          <t>Étienne_Gourmelen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses premières études dans le pays de Cornouaille, en Basse-Bretagne, sa patrie. Les succès qu'il y obtint, et surtout un goût fortement prononcé pour les sciences physiques, le déterminèrent à embrasser l'étude de la médecine contre le vœu de ses parents. Malgré les conseils et les représentations de sa famille, dont la modique fortune était peu propre à favoriser une semblable entreprise, le jeune Gourmelen se rendit à Paris avec très peu d'argent ; mais il y apportait une éducation soignée, une extrême ardeur pour l'étude, l'amour du travail et le besoin de se distinguer. 
 Il se livra avec une constance et une assiduité peu communes à l'étude des meilleurs auteurs anciens et modernes ; et après avoir paru avec éclat dans tous ses actes, il fut reçu docteur le 5 mars 1561. Devenu professeur en 1567, le grand concours d'auditeurs que ses leçons sur Hippocrate et Galien lui attirèrent dès le début de son professorat lui acquit bientôt beaucoup de réputation, il fut élu doyen de la faculté en 1574, et fut confirmé dans 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Gourmelen</t>
+          <t>Étienne_Gourmelen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son Synopseos chirurgien libriseoe, Paris, 1566, in-8°, accueilli avec empressement, fut traduit en français par Malézieux, Paris, 1571, in-8° ; et par Courtin, sous le titre de Guide des chirurgiens, Paris, 1634 ;
 Hippocratis libellas de alimenta in latinum versus et commentants illustratus, Paris, 1572, in-8°. Ce livre avait servi de texte aux leçons de l'auteur trois ans auparavant.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Gourmelen</t>
+          <t>Étienne_Gourmelen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue et l'hôpital psychiatrique de Quimper portent le nom du docteur Gourmelen. L'hôpital a pris le nom d' "EPSM du Finistère Sud" ("Établissement public de santé mentale du Finistère Sud") en 2021.
 </t>
